--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T19:43:16+00:00</t>
+    <t>2024-01-03T18:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T18:03:54+00:00</t>
+    <t>2024-01-03T22:56:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://nih-ncpi.github.ioo/ncpi-fhir-ig-2/CodeSystem/data-access-code</t>
+    <t>https://nih-ncpi.github.io/ncpi-fhir-ig-2/CodeSystem/research-data-access-code</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-03T22:56:43+00:00</t>
+    <t>2024-03-11T22:11:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-11T22:11:27+00:00</t>
+    <t>2024-03-15T21:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>Level</t>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Genetic studies only</t>
+  </si>
+  <si>
+    <t>GSR</t>
+  </si>
+  <si>
+    <t>Genomic Summary Results</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -619,6 +625,18 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-15T21:50:53+00:00</t>
+    <t>2024-03-18T15:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:37:44+00:00</t>
+    <t>2024-03-18T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-research-data-access-code.xlsx
+++ b/CodeSystem-research-data-access-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T15:48:54+00:00</t>
+    <t>2024-03-21T20:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
